--- a/scratch_work.xlsx
+++ b/scratch_work.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\Google Drive\Classes\CS162\Project (Final)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stran\Documents\CS-162_Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6AB5F5BB-8485-4FC6-BD0D-2EE9777B8C52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46855134-3F1C-4F6C-B93F-4B6EC4099F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10860" yWindow="9870" windowWidth="18360" windowHeight="10710" activeTab="1" xr2:uid="{8ADB9C98-4BF1-445F-8844-2F8A5959D6F8}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{8ADB9C98-4BF1-445F-8844-2F8A5959D6F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="129">
   <si>
     <t>a</t>
   </si>
@@ -540,7 +542,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -550,66 +552,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -697,11 +639,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -709,19 +702,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -742,25 +726,22 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -797,6 +778,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1114,124 +1110,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5712849-58A8-4C1C-BC68-3DC2E8A01185}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection sqref="A1:K11"/>
+    <sheetView topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="3.5703125" style="2" customWidth="1"/>
+    <col min="3" max="11" width="3.54296875" style="2" customWidth="1"/>
     <col min="12" max="15" width="4" style="2"/>
-    <col min="16" max="16" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="2" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="4" style="2"/>
-    <col min="19" max="19" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.453125" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="16384" width="4" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:31" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9">
         <v>1</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="9">
         <v>2</v>
       </c>
-      <c r="E1" s="12">
-        <v>3</v>
-      </c>
-      <c r="F1" s="12">
-        <v>4</v>
-      </c>
-      <c r="G1" s="12">
+      <c r="E1" s="9">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9">
         <v>5</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="9">
         <v>6</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="9">
         <v>7</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="9">
         <v>8</v>
       </c>
-      <c r="K1" s="12">
+      <c r="K1" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="14">
         <v>0</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="15">
         <v>1</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="15">
         <v>2</v>
       </c>
-      <c r="F2" s="18">
-        <v>3</v>
-      </c>
-      <c r="G2" s="18">
-        <v>4</v>
-      </c>
-      <c r="H2" s="18">
+      <c r="F2" s="15">
+        <v>3</v>
+      </c>
+      <c r="G2" s="15">
+        <v>4</v>
+      </c>
+      <c r="H2" s="15">
         <v>5</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="15">
         <v>6</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="15">
         <v>7</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="16">
         <v>8</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="11">
         <v>0</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="17">
         <v>2</v>
       </c>
-      <c r="D3" s="21">
-        <v>3</v>
-      </c>
-      <c r="E3" s="4">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4">
-        <v>3</v>
-      </c>
-      <c r="H3" s="4">
-        <v>3</v>
-      </c>
-      <c r="I3" s="4">
-        <v>3</v>
-      </c>
-      <c r="J3" s="21">
-        <v>3</v>
-      </c>
-      <c r="K3" s="8">
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5">
+        <v>3</v>
+      </c>
+      <c r="K3" s="17">
         <v>2</v>
       </c>
       <c r="O3" s="2" t="s">
@@ -1244,17 +1240,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="12">
         <v>1</v>
       </c>
-      <c r="C4" s="21">
-        <v>3</v>
-      </c>
-      <c r="D4" s="7">
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="17">
         <v>2</v>
       </c>
       <c r="E4" s="3">
@@ -1272,10 +1268,10 @@
       <c r="I4" s="3">
         <v>3</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="17">
         <v>2</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="5">
         <v>3</v>
       </c>
       <c r="O4" s="2" t="s">
@@ -1287,18 +1283,18 @@
       <c r="Q4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="AC4" s="10" t="s">
+      <c r="AC4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="AD4" s="10" t="s">
+      <c r="AD4" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
       <c r="C5" s="3">
@@ -1307,19 +1303,19 @@
       <c r="D5" s="3">
         <v>3</v>
       </c>
-      <c r="E5" s="5">
-        <v>4</v>
-      </c>
-      <c r="F5" s="5">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5">
-        <v>4</v>
-      </c>
-      <c r="H5" s="5">
-        <v>4</v>
-      </c>
-      <c r="I5" s="5">
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4">
         <v>4</v>
       </c>
       <c r="J5" s="3">
@@ -1344,11 +1340,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="12">
         <v>3</v>
       </c>
       <c r="C6" s="3">
@@ -1357,19 +1353,19 @@
       <c r="D6" s="3">
         <v>3</v>
       </c>
-      <c r="E6" s="5">
-        <v>4</v>
-      </c>
-      <c r="F6" s="5">
-        <v>4</v>
-      </c>
-      <c r="G6" s="5">
-        <v>4</v>
-      </c>
-      <c r="H6" s="5">
-        <v>4</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
         <v>4</v>
       </c>
       <c r="J6" s="3">
@@ -1394,11 +1390,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="15">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12">
         <v>4</v>
       </c>
       <c r="C7" s="3">
@@ -1407,19 +1403,19 @@
       <c r="D7" s="3">
         <v>3</v>
       </c>
-      <c r="E7" s="5">
-        <v>4</v>
-      </c>
-      <c r="F7" s="5">
-        <v>4</v>
-      </c>
-      <c r="G7" s="5">
-        <v>4</v>
-      </c>
-      <c r="H7" s="5">
-        <v>4</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4</v>
+      </c>
+      <c r="I7" s="4">
         <v>4</v>
       </c>
       <c r="J7" s="3">
@@ -1435,11 +1431,11 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="12">
         <v>5</v>
       </c>
       <c r="C8" s="3">
@@ -1448,19 +1444,19 @@
       <c r="D8" s="3">
         <v>3</v>
       </c>
-      <c r="E8" s="5">
-        <v>4</v>
-      </c>
-      <c r="F8" s="5">
-        <v>4</v>
-      </c>
-      <c r="G8" s="5">
-        <v>4</v>
-      </c>
-      <c r="H8" s="5">
-        <v>4</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4">
         <v>4</v>
       </c>
       <c r="J8" s="3">
@@ -1473,11 +1469,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="12">
         <v>6</v>
       </c>
       <c r="C9" s="3">
@@ -1486,19 +1482,19 @@
       <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="5">
-        <v>4</v>
-      </c>
-      <c r="F9" s="5">
-        <v>4</v>
-      </c>
-      <c r="G9" s="5">
-        <v>4</v>
-      </c>
-      <c r="H9" s="5">
-        <v>4</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4">
         <v>4</v>
       </c>
       <c r="J9" s="3">
@@ -1510,13 +1506,13 @@
       <c r="N9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="Y9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB9" s="10" t="s">
+      <c r="AB9" s="7" t="s">
         <v>26</v>
       </c>
       <c r="AC9" s="2">
@@ -1529,17 +1525,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="12">
         <v>7</v>
       </c>
-      <c r="C10" s="21">
-        <v>3</v>
-      </c>
-      <c r="D10" s="6">
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="17">
         <v>2</v>
       </c>
       <c r="E10" s="3">
@@ -1557,16 +1553,16 @@
       <c r="I10" s="3">
         <v>3</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="17">
         <v>2</v>
       </c>
-      <c r="K10" s="20">
+      <c r="K10" s="5">
         <v>3</v>
       </c>
       <c r="Y10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AB10" s="10" t="s">
+      <c r="AB10" s="7" t="s">
         <v>27</v>
       </c>
       <c r="AC10" s="2">
@@ -1579,17 +1575,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="13">
         <v>8</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="17">
         <v>2</v>
       </c>
-      <c r="D11" s="20">
+      <c r="D11" s="5">
         <v>3</v>
       </c>
       <c r="E11" s="3">
@@ -1607,19 +1603,19 @@
       <c r="I11" s="3">
         <v>3</v>
       </c>
-      <c r="J11" s="20">
-        <v>3</v>
-      </c>
-      <c r="K11" s="8">
+      <c r="J11" s="5">
+        <v>3</v>
+      </c>
+      <c r="K11" s="17">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.35">
       <c r="O12" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="D13" s="2" t="s">
         <v>61</v>
       </c>
@@ -1633,7 +1629,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="C14" s="2" t="s">
         <v>60</v>
       </c>
@@ -1650,7 +1646,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="O15" s="2" t="s">
         <v>50</v>
       </c>
@@ -1667,7 +1663,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.35">
       <c r="O16" s="2" t="s">
         <v>36</v>
       </c>
@@ -1678,17 +1674,17 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.35">
       <c r="N18" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.25">
-      <c r="N19" s="22" t="s">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.35">
+      <c r="N19" s="18" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C20" s="2">
         <v>22</v>
       </c>
@@ -1696,12 +1692,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.35">
       <c r="N21" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C22" s="2" t="s">
         <v>62</v>
       </c>
@@ -1709,17 +1705,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:17" x14ac:dyDescent="0.35">
       <c r="N23" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.35">
       <c r="N24" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.35">
       <c r="N25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1727,27 +1723,27 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:17" x14ac:dyDescent="0.35">
       <c r="N26" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.35">
       <c r="N27" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.35">
       <c r="N28" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:17" x14ac:dyDescent="0.35">
       <c r="N29" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:17" x14ac:dyDescent="0.35">
       <c r="N30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1762,78 +1758,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D760291B-DBB1-41EB-809A-303AF0CF3608}">
   <dimension ref="A1:AP46"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="V21" sqref="V21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="31" max="31" width="3.5703125" style="31"/>
+    <col min="1" max="1" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="3.54296875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="90" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:42" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9">
         <v>1</v>
       </c>
-      <c r="D1" s="12">
+      <c r="D1" s="9">
         <v>2</v>
       </c>
-      <c r="E1" s="12">
-        <v>3</v>
-      </c>
-      <c r="F1" s="12">
-        <v>4</v>
-      </c>
-      <c r="G1" s="12">
+      <c r="E1" s="9">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9">
+        <v>4</v>
+      </c>
+      <c r="G1" s="9">
         <v>5</v>
       </c>
-      <c r="H1" s="12">
+      <c r="H1" s="9">
         <v>6</v>
       </c>
-      <c r="I1" s="12">
+      <c r="I1" s="9">
         <v>7</v>
       </c>
-      <c r="J1" s="12">
+      <c r="J1" s="9">
         <v>8</v>
       </c>
-      <c r="K1" s="12">
+      <c r="K1" s="9">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13" t="s">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="17">
+      <c r="C2" s="30">
         <v>0</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="33">
         <v>1</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="33">
         <v>2</v>
       </c>
-      <c r="F2" s="18">
-        <v>3</v>
-      </c>
-      <c r="G2" s="18">
-        <v>4</v>
-      </c>
-      <c r="H2" s="18">
+      <c r="F2" s="33">
+        <v>3</v>
+      </c>
+      <c r="G2" s="33">
+        <v>4</v>
+      </c>
+      <c r="H2" s="33">
         <v>5</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="33">
         <v>6</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="33">
         <v>7</v>
       </c>
-      <c r="K2" s="19">
+      <c r="K2" s="34">
         <v>8</v>
       </c>
       <c r="T2" t="s">
@@ -1843,83 +1841,83 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3" s="30">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>10</v>
+      <c r="C3" s="17">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="3">
+        <v>3</v>
+      </c>
+      <c r="H3" s="3">
+        <v>3</v>
+      </c>
+      <c r="I3" s="3">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5">
+        <v>3</v>
+      </c>
+      <c r="K3" s="17">
+        <v>2</v>
       </c>
       <c r="S3" t="s">
         <v>128</v>
       </c>
-      <c r="T3" s="26" t="str">
+      <c r="T3" s="22" t="str">
         <f>CONCATENATE($A3,C$1)</f>
         <v>a1</v>
       </c>
-      <c r="U3" s="26" t="str">
+      <c r="U3" s="22" t="str">
         <f t="shared" ref="U3:AB3" si="0">CONCATENATE($A$3,D1)</f>
         <v>a2</v>
       </c>
-      <c r="V3" s="26" t="str">
+      <c r="V3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>a3</v>
       </c>
-      <c r="W3" s="26" t="str">
+      <c r="W3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>a4</v>
       </c>
-      <c r="X3" s="26" t="str">
+      <c r="X3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>a5</v>
       </c>
-      <c r="Y3" s="26" t="str">
+      <c r="Y3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>a6</v>
       </c>
-      <c r="Z3" s="26" t="str">
+      <c r="Z3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>a7</v>
       </c>
-      <c r="AA3" s="26" t="str">
+      <c r="AA3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>a8</v>
       </c>
-      <c r="AB3" s="26" t="str">
+      <c r="AB3" s="22" t="str">
         <f t="shared" si="0"/>
         <v>a9</v>
       </c>
       <c r="AC3" t="s">
         <v>128</v>
       </c>
-      <c r="AE3" s="32" t="s">
+      <c r="AE3" s="28" t="s">
         <v>9</v>
       </c>
       <c r="AF3" t="s">
@@ -1936,59 +1934,77 @@
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="31">
         <v>1</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="21"/>
-      <c r="T4" s="25" t="str">
+      <c r="C4" s="5">
+        <v>3</v>
+      </c>
+      <c r="D4" s="17">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3</v>
+      </c>
+      <c r="H4" s="3">
+        <v>3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3</v>
+      </c>
+      <c r="J4" s="17">
+        <v>2</v>
+      </c>
+      <c r="K4" s="5">
+        <v>3</v>
+      </c>
+      <c r="T4" s="21" t="str">
         <f t="shared" ref="T4:T10" si="2">CONCATENATE($A4,C$1)</f>
         <v>b1</v>
       </c>
-      <c r="U4" s="25" t="str">
+      <c r="U4" s="21" t="str">
         <f t="shared" ref="U4:U11" si="3">CONCATENATE($A4,D$1)</f>
         <v>b2</v>
       </c>
-      <c r="V4" s="25" t="str">
+      <c r="V4" s="21" t="str">
         <f t="shared" ref="V4:V11" si="4">CONCATENATE($A4,E$1)</f>
         <v>b3</v>
       </c>
-      <c r="W4" s="25" t="str">
+      <c r="W4" s="21" t="str">
         <f t="shared" ref="W4:W11" si="5">CONCATENATE($A4,F$1)</f>
         <v>b4</v>
       </c>
-      <c r="X4" s="25" t="str">
+      <c r="X4" s="21" t="str">
         <f t="shared" ref="X4:X11" si="6">CONCATENATE($A4,G$1)</f>
         <v>b5</v>
       </c>
-      <c r="Y4" s="25" t="str">
+      <c r="Y4" s="21" t="str">
         <f t="shared" ref="Y4:Y11" si="7">CONCATENATE($A4,H$1)</f>
         <v>b6</v>
       </c>
-      <c r="Z4" s="25" t="str">
+      <c r="Z4" s="21" t="str">
         <f t="shared" ref="Z4:Z11" si="8">CONCATENATE($A4,I$1)</f>
         <v>b7</v>
       </c>
-      <c r="AA4" s="25" t="str">
+      <c r="AA4" s="21" t="str">
         <f t="shared" ref="AA4:AA11" si="9">CONCATENATE($A4,J$1)</f>
         <v>b8</v>
       </c>
-      <c r="AB4" s="25" t="str">
+      <c r="AB4" s="21" t="str">
         <f t="shared" ref="AB4:AB11" si="10">CONCATENATE($A4,K$1)</f>
         <v>b9</v>
       </c>
-      <c r="AE4" s="33" t="s">
+      <c r="AE4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="AF4" t="s">
@@ -2005,59 +2021,77 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="31">
         <v>2</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="T5" s="25" t="str">
+      <c r="C5" s="3">
+        <v>3</v>
+      </c>
+      <c r="D5" s="3">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4</v>
+      </c>
+      <c r="J5" s="3">
+        <v>3</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3</v>
+      </c>
+      <c r="T5" s="21" t="str">
         <f t="shared" si="2"/>
         <v>c1</v>
       </c>
-      <c r="U5" s="25" t="str">
+      <c r="U5" s="21" t="str">
         <f t="shared" si="3"/>
         <v>c2</v>
       </c>
-      <c r="V5" s="25" t="str">
+      <c r="V5" s="21" t="str">
         <f t="shared" si="4"/>
         <v>c3</v>
       </c>
-      <c r="W5" s="25" t="str">
+      <c r="W5" s="21" t="str">
         <f t="shared" si="5"/>
         <v>c4</v>
       </c>
-      <c r="X5" s="25" t="str">
+      <c r="X5" s="21" t="str">
         <f t="shared" si="6"/>
         <v>c5</v>
       </c>
-      <c r="Y5" s="25" t="str">
+      <c r="Y5" s="21" t="str">
         <f t="shared" si="7"/>
         <v>c6</v>
       </c>
-      <c r="Z5" s="25" t="str">
+      <c r="Z5" s="21" t="str">
         <f t="shared" si="8"/>
         <v>c7</v>
       </c>
-      <c r="AA5" s="25" t="str">
+      <c r="AA5" s="21" t="str">
         <f t="shared" si="9"/>
         <v>c8</v>
       </c>
-      <c r="AB5" s="25" t="str">
+      <c r="AB5" s="21" t="str">
         <f t="shared" si="10"/>
         <v>c9</v>
       </c>
-      <c r="AE5" s="32" t="s">
+      <c r="AE5" s="28" t="s">
         <v>9</v>
       </c>
       <c r="AF5" t="s">
@@ -2074,24 +2108,40 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15">
-        <v>3</v>
-      </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+    <row r="6" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="31">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
+        <v>3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>3</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4</v>
+      </c>
+      <c r="J6" s="3">
+        <v>3</v>
+      </c>
+      <c r="K6" s="3">
+        <v>3</v>
+      </c>
       <c r="O6" t="s">
         <v>9</v>
       </c>
@@ -2101,43 +2151,43 @@
       <c r="Q6" t="s">
         <v>101</v>
       </c>
-      <c r="T6" s="25" t="str">
+      <c r="T6" s="21" t="str">
         <f t="shared" si="2"/>
         <v>d1</v>
       </c>
-      <c r="U6" s="25" t="str">
+      <c r="U6" s="21" t="str">
         <f t="shared" si="3"/>
         <v>d2</v>
       </c>
-      <c r="V6" s="25" t="str">
+      <c r="V6" s="21" t="str">
         <f t="shared" si="4"/>
         <v>d3</v>
       </c>
-      <c r="W6" s="25" t="str">
+      <c r="W6" s="21" t="str">
         <f t="shared" si="5"/>
         <v>d4</v>
       </c>
-      <c r="X6" s="25" t="str">
+      <c r="X6" s="21" t="str">
         <f t="shared" si="6"/>
         <v>d5</v>
       </c>
-      <c r="Y6" s="25" t="str">
+      <c r="Y6" s="21" t="str">
         <f t="shared" si="7"/>
         <v>d6</v>
       </c>
-      <c r="Z6" s="25" t="str">
+      <c r="Z6" s="21" t="str">
         <f t="shared" si="8"/>
         <v>d7</v>
       </c>
-      <c r="AA6" s="25" t="str">
+      <c r="AA6" s="21" t="str">
         <f t="shared" si="9"/>
         <v>d8</v>
       </c>
-      <c r="AB6" s="25" t="str">
+      <c r="AB6" s="21" t="str">
         <f t="shared" si="10"/>
         <v>d9</v>
       </c>
-      <c r="AE6" s="33" t="s">
+      <c r="AE6" s="29" t="s">
         <v>10</v>
       </c>
       <c r="AF6" t="s">
@@ -2154,25 +2204,41 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="15">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="O7" s="24" t="s">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A7" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="31">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>3</v>
+      </c>
+      <c r="D7" s="3">
+        <v>3</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>4</v>
+      </c>
+      <c r="G7" s="4">
+        <v>4</v>
+      </c>
+      <c r="H7" s="4">
+        <v>4</v>
+      </c>
+      <c r="I7" s="4">
+        <v>4</v>
+      </c>
+      <c r="J7" s="3">
+        <v>3</v>
+      </c>
+      <c r="K7" s="3">
+        <v>3</v>
+      </c>
+      <c r="O7" s="20" t="s">
         <v>10</v>
       </c>
       <c r="P7" t="s">
@@ -2181,43 +2247,43 @@
       <c r="Q7" t="s">
         <v>102</v>
       </c>
-      <c r="T7" s="25" t="str">
+      <c r="T7" s="21" t="str">
         <f t="shared" si="2"/>
         <v>e1</v>
       </c>
-      <c r="U7" s="25" t="str">
+      <c r="U7" s="21" t="str">
         <f t="shared" si="3"/>
         <v>e2</v>
       </c>
-      <c r="V7" s="25" t="str">
+      <c r="V7" s="21" t="str">
         <f t="shared" si="4"/>
         <v>e3</v>
       </c>
-      <c r="W7" s="25" t="str">
+      <c r="W7" s="21" t="str">
         <f t="shared" si="5"/>
         <v>e4</v>
       </c>
-      <c r="X7" s="25" t="str">
+      <c r="X7" s="21" t="str">
         <f t="shared" si="6"/>
         <v>e5</v>
       </c>
-      <c r="Y7" s="25" t="str">
+      <c r="Y7" s="21" t="str">
         <f t="shared" si="7"/>
         <v>e6</v>
       </c>
-      <c r="Z7" s="25" t="str">
+      <c r="Z7" s="21" t="str">
         <f t="shared" si="8"/>
         <v>e7</v>
       </c>
-      <c r="AA7" s="25" t="str">
+      <c r="AA7" s="21" t="str">
         <f t="shared" si="9"/>
         <v>e8</v>
       </c>
-      <c r="AB7" s="25" t="str">
+      <c r="AB7" s="21" t="str">
         <f t="shared" si="10"/>
         <v>e9</v>
       </c>
-      <c r="AE7" s="32" t="s">
+      <c r="AE7" s="28" t="s">
         <v>9</v>
       </c>
       <c r="AF7" t="s">
@@ -2234,24 +2300,40 @@
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="31">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="C8" s="3">
+        <v>3</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4">
+        <v>4</v>
+      </c>
+      <c r="G8" s="4">
+        <v>4</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4</v>
+      </c>
+      <c r="J8" s="3">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
+        <v>3</v>
+      </c>
       <c r="O8" t="s">
         <v>9</v>
       </c>
@@ -2261,43 +2343,43 @@
       <c r="Q8" t="s">
         <v>100</v>
       </c>
-      <c r="T8" s="25" t="str">
+      <c r="T8" s="21" t="str">
         <f t="shared" si="2"/>
         <v>f1</v>
       </c>
-      <c r="U8" s="25" t="str">
+      <c r="U8" s="21" t="str">
         <f t="shared" si="3"/>
         <v>f2</v>
       </c>
-      <c r="V8" s="25" t="str">
+      <c r="V8" s="21" t="str">
         <f t="shared" si="4"/>
         <v>f3</v>
       </c>
-      <c r="W8" s="25" t="str">
+      <c r="W8" s="21" t="str">
         <f t="shared" si="5"/>
         <v>f4</v>
       </c>
-      <c r="X8" s="25" t="str">
+      <c r="X8" s="21" t="str">
         <f t="shared" si="6"/>
         <v>f5</v>
       </c>
-      <c r="Y8" s="25" t="str">
+      <c r="Y8" s="21" t="str">
         <f t="shared" si="7"/>
         <v>f6</v>
       </c>
-      <c r="Z8" s="25" t="str">
+      <c r="Z8" s="21" t="str">
         <f t="shared" si="8"/>
         <v>f7</v>
       </c>
-      <c r="AA8" s="25" t="str">
+      <c r="AA8" s="21" t="str">
         <f t="shared" si="9"/>
         <v>f8</v>
       </c>
-      <c r="AB8" s="25" t="str">
+      <c r="AB8" s="21" t="str">
         <f t="shared" si="10"/>
         <v>f9</v>
       </c>
-      <c r="AE8" s="33" t="s">
+      <c r="AE8" s="29" t="s">
         <v>10</v>
       </c>
       <c r="AF8" t="s">
@@ -2314,25 +2396,41 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="31">
         <v>6</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="O9" s="24" t="s">
+      <c r="C9" s="3">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+      <c r="G9" s="4">
+        <v>4</v>
+      </c>
+      <c r="H9" s="4">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4">
+        <v>4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>3</v>
+      </c>
+      <c r="O9" s="20" t="s">
         <v>10</v>
       </c>
       <c r="P9" t="s">
@@ -2341,43 +2439,43 @@
       <c r="Q9" t="s">
         <v>91</v>
       </c>
-      <c r="T9" s="25" t="str">
+      <c r="T9" s="21" t="str">
         <f t="shared" si="2"/>
         <v>g1</v>
       </c>
-      <c r="U9" s="27" t="str">
+      <c r="U9" s="23" t="str">
         <f t="shared" si="3"/>
         <v>g2</v>
       </c>
-      <c r="V9" s="25" t="str">
+      <c r="V9" s="21" t="str">
         <f t="shared" si="4"/>
         <v>g3</v>
       </c>
-      <c r="W9" s="29" t="str">
+      <c r="W9" s="25" t="str">
         <f t="shared" si="5"/>
         <v>g4</v>
       </c>
-      <c r="X9" s="25" t="str">
+      <c r="X9" s="21" t="str">
         <f t="shared" si="6"/>
         <v>g5</v>
       </c>
-      <c r="Y9" s="25" t="str">
+      <c r="Y9" s="21" t="str">
         <f t="shared" si="7"/>
         <v>g6</v>
       </c>
-      <c r="Z9" s="25" t="str">
+      <c r="Z9" s="21" t="str">
         <f t="shared" si="8"/>
         <v>g7</v>
       </c>
-      <c r="AA9" s="25" t="str">
+      <c r="AA9" s="21" t="str">
         <f t="shared" si="9"/>
         <v>g8</v>
       </c>
-      <c r="AB9" s="29" t="str">
+      <c r="AB9" s="25" t="str">
         <f t="shared" si="10"/>
         <v>g9</v>
       </c>
-      <c r="AE9" s="32" t="s">
+      <c r="AE9" s="28" t="s">
         <v>9</v>
       </c>
       <c r="AF9" t="s">
@@ -2394,22 +2492,40 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="31">
         <v>7</v>
       </c>
-      <c r="C10" s="21"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="20"/>
+      <c r="C10" s="5">
+        <v>3</v>
+      </c>
+      <c r="D10" s="17">
+        <v>2</v>
+      </c>
+      <c r="E10" s="3">
+        <v>3</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>3</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3</v>
+      </c>
+      <c r="J10" s="17">
+        <v>2</v>
+      </c>
+      <c r="K10" s="5">
+        <v>3</v>
+      </c>
       <c r="O10" t="s">
         <v>9</v>
       </c>
@@ -2419,43 +2535,43 @@
       <c r="Q10" t="s">
         <v>90</v>
       </c>
-      <c r="T10" s="26" t="str">
+      <c r="T10" s="22" t="str">
         <f t="shared" si="2"/>
         <v>h1</v>
       </c>
-      <c r="U10" s="25" t="str">
+      <c r="U10" s="21" t="str">
         <f t="shared" si="3"/>
         <v>h2</v>
       </c>
-      <c r="V10" s="25" t="str">
+      <c r="V10" s="21" t="str">
         <f t="shared" si="4"/>
         <v>h3</v>
       </c>
-      <c r="W10" s="25" t="str">
+      <c r="W10" s="21" t="str">
         <f t="shared" si="5"/>
         <v>h4</v>
       </c>
-      <c r="X10" s="25" t="str">
+      <c r="X10" s="21" t="str">
         <f t="shared" si="6"/>
         <v>h5</v>
       </c>
-      <c r="Y10" s="25" t="str">
+      <c r="Y10" s="21" t="str">
         <f t="shared" si="7"/>
         <v>h6</v>
       </c>
-      <c r="Z10" s="25" t="str">
+      <c r="Z10" s="21" t="str">
         <f t="shared" si="8"/>
         <v>h7</v>
       </c>
-      <c r="AA10" s="25" t="str">
+      <c r="AA10" s="21" t="str">
         <f t="shared" si="9"/>
         <v>h8</v>
       </c>
-      <c r="AB10" s="25" t="str">
+      <c r="AB10" s="21" t="str">
         <f t="shared" si="10"/>
         <v>h9</v>
       </c>
-      <c r="AE10" s="33" t="s">
+      <c r="AE10" s="29" t="s">
         <v>10</v>
       </c>
       <c r="AF10" t="s">
@@ -2472,39 +2588,41 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="32">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="O11" s="24" t="s">
+      <c r="C11" s="17">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="3">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3">
+        <v>3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>3</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3</v>
+      </c>
+      <c r="I11" s="3">
+        <v>3</v>
+      </c>
+      <c r="J11" s="5">
+        <v>3</v>
+      </c>
+      <c r="K11" s="17">
+        <v>2</v>
+      </c>
+      <c r="O11" s="20" t="s">
         <v>10</v>
       </c>
       <c r="P11" t="s">
@@ -2516,46 +2634,46 @@
       <c r="S11" t="s">
         <v>128</v>
       </c>
-      <c r="T11" s="27" t="str">
+      <c r="T11" s="23" t="str">
         <f>CONCATENATE($A11,C$1)</f>
         <v>i1</v>
       </c>
-      <c r="U11" s="27" t="str">
+      <c r="U11" s="23" t="str">
         <f t="shared" si="3"/>
         <v>i2</v>
       </c>
-      <c r="V11" s="27" t="str">
+      <c r="V11" s="23" t="str">
         <f t="shared" si="4"/>
         <v>i3</v>
       </c>
-      <c r="W11" s="27" t="str">
+      <c r="W11" s="23" t="str">
         <f t="shared" si="5"/>
         <v>i4</v>
       </c>
-      <c r="X11" s="27" t="str">
+      <c r="X11" s="23" t="str">
         <f t="shared" si="6"/>
         <v>i5</v>
       </c>
-      <c r="Y11" s="27" t="str">
+      <c r="Y11" s="23" t="str">
         <f t="shared" si="7"/>
         <v>i6</v>
       </c>
-      <c r="Z11" s="27" t="str">
+      <c r="Z11" s="23" t="str">
         <f t="shared" si="8"/>
         <v>i7</v>
       </c>
-      <c r="AA11" s="27" t="str">
+      <c r="AA11" s="23" t="str">
         <f t="shared" si="9"/>
         <v>i8</v>
       </c>
-      <c r="AB11" s="27" t="str">
+      <c r="AB11" s="23" t="str">
         <f t="shared" si="10"/>
         <v>i9</v>
       </c>
       <c r="AC11" t="s">
         <v>128</v>
       </c>
-      <c r="AE11" s="32" t="s">
+      <c r="AE11" s="28" t="s">
         <v>9</v>
       </c>
       <c r="AF11" t="s">
@@ -2572,11 +2690,11 @@
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="O12" s="23" t="s">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="O12" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="P12" s="23" t="s">
+      <c r="P12" s="19" t="s">
         <v>81</v>
       </c>
       <c r="T12" t="s">
@@ -2585,7 +2703,7 @@
       <c r="AB12" t="s">
         <v>128</v>
       </c>
-      <c r="AE12" s="33" t="s">
+      <c r="AE12" s="29" t="s">
         <v>10</v>
       </c>
       <c r="AF12" t="s">
@@ -2602,44 +2720,44 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="T13" s="30" t="str">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.35">
+      <c r="T13" s="26" t="str">
         <f>CONCATENATE($B3,C2)</f>
         <v>00</v>
       </c>
-      <c r="U13" s="30" t="str">
-        <f t="shared" ref="U13:AB21" si="11">CONCATENATE($B3,D2)</f>
+      <c r="U13" s="26" t="str">
+        <f t="shared" ref="U13:AB13" si="11">CONCATENATE($B3,D2)</f>
         <v>01</v>
       </c>
-      <c r="V13" s="30" t="str">
+      <c r="V13" s="26" t="str">
         <f t="shared" si="11"/>
         <v>02</v>
       </c>
-      <c r="W13" s="30" t="str">
+      <c r="W13" s="26" t="str">
         <f t="shared" si="11"/>
         <v>03</v>
       </c>
-      <c r="X13" s="30" t="str">
+      <c r="X13" s="26" t="str">
         <f t="shared" si="11"/>
         <v>04</v>
       </c>
-      <c r="Y13" s="30" t="str">
+      <c r="Y13" s="26" t="str">
         <f t="shared" si="11"/>
         <v>05</v>
       </c>
-      <c r="Z13" s="30" t="str">
+      <c r="Z13" s="26" t="str">
         <f t="shared" si="11"/>
         <v>06</v>
       </c>
-      <c r="AA13" s="30" t="str">
+      <c r="AA13" s="26" t="str">
         <f t="shared" si="11"/>
         <v>07</v>
       </c>
-      <c r="AB13" s="30" t="str">
+      <c r="AB13" s="26" t="str">
         <f t="shared" si="11"/>
         <v>08</v>
       </c>
-      <c r="AE13" s="32" t="s">
+      <c r="AE13" s="28" t="s">
         <v>9</v>
       </c>
       <c r="AI13" t="str">
@@ -2650,53 +2768,50 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.35">
       <c r="O14" t="s">
         <v>88</v>
       </c>
       <c r="P14" t="s">
         <v>103</v>
       </c>
-      <c r="T14" s="30" t="str">
+      <c r="T14" s="26" t="str">
         <f>CONCATENATE($B4,C$2)</f>
         <v>10</v>
       </c>
-      <c r="U14" s="30" t="str">
-        <f t="shared" ref="U14:AB21" si="12">CONCATENATE($B4,D2)</f>
+      <c r="U14" s="26" t="str">
+        <f t="shared" ref="U14:AB14" si="12">CONCATENATE($B4,D2)</f>
         <v>11</v>
       </c>
-      <c r="V14" s="30" t="str">
+      <c r="V14" s="26" t="str">
         <f t="shared" si="12"/>
         <v>12</v>
       </c>
-      <c r="W14" s="30" t="str">
+      <c r="W14" s="26" t="str">
         <f t="shared" si="12"/>
         <v>13</v>
       </c>
-      <c r="X14" s="30" t="str">
+      <c r="X14" s="26" t="str">
         <f t="shared" si="12"/>
         <v>14</v>
       </c>
-      <c r="Y14" s="30" t="str">
+      <c r="Y14" s="26" t="str">
         <f t="shared" si="12"/>
         <v>15</v>
       </c>
-      <c r="Z14" s="30" t="str">
+      <c r="Z14" s="26" t="str">
         <f t="shared" si="12"/>
         <v>16</v>
       </c>
-      <c r="AA14" s="30" t="str">
+      <c r="AA14" s="26" t="str">
         <f t="shared" si="12"/>
         <v>17</v>
       </c>
-      <c r="AB14" s="30" t="str">
+      <c r="AB14" s="26" t="str">
         <f t="shared" si="12"/>
         <v>18</v>
       </c>
-      <c r="AE14" s="33" t="s">
+      <c r="AE14" s="29" t="s">
         <v>10</v>
       </c>
       <c r="AI14" t="str">
@@ -2707,342 +2822,345 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" t="s">
-        <v>66</v>
-      </c>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.35">
       <c r="O15" t="s">
         <v>64</v>
       </c>
       <c r="P15" t="s">
         <v>67</v>
       </c>
-      <c r="T15" s="30" t="str">
+      <c r="T15" s="26" t="str">
         <f t="shared" ref="T15:T21" si="13">CONCATENATE($B5,C$2)</f>
         <v>20</v>
       </c>
-      <c r="U15" s="30" t="str">
+      <c r="U15" s="26" t="str">
         <f t="shared" ref="U15" si="14">CONCATENATE($B5,D$2)</f>
         <v>21</v>
       </c>
-      <c r="V15" s="30" t="str">
+      <c r="V15" s="26" t="str">
         <f t="shared" ref="V15" si="15">CONCATENATE($B5,E$2)</f>
         <v>22</v>
       </c>
-      <c r="W15" s="30" t="str">
+      <c r="W15" s="26" t="str">
         <f t="shared" ref="W15" si="16">CONCATENATE($B5,F$2)</f>
         <v>23</v>
       </c>
-      <c r="X15" s="30" t="str">
+      <c r="X15" s="26" t="str">
         <f t="shared" ref="X15" si="17">CONCATENATE($B5,G$2)</f>
         <v>24</v>
       </c>
-      <c r="Y15" s="30" t="str">
+      <c r="Y15" s="26" t="str">
         <f t="shared" ref="Y15" si="18">CONCATENATE($B5,H$2)</f>
         <v>25</v>
       </c>
-      <c r="Z15" s="30" t="str">
+      <c r="Z15" s="26" t="str">
         <f t="shared" ref="Z15" si="19">CONCATENATE($B5,I$2)</f>
         <v>26</v>
       </c>
-      <c r="AA15" s="30" t="str">
+      <c r="AA15" s="26" t="str">
         <f t="shared" ref="AA15" si="20">CONCATENATE($B5,J$2)</f>
         <v>27</v>
       </c>
-      <c r="AB15" s="30" t="str">
+      <c r="AB15" s="26" t="str">
         <f t="shared" ref="AB15" si="21">CONCATENATE($B5,K$2)</f>
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" t="s">
-        <v>67</v>
-      </c>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.35">
       <c r="O16" t="s">
         <v>84</v>
       </c>
       <c r="P16" t="s">
         <v>104</v>
       </c>
-      <c r="T16" s="30" t="str">
+      <c r="T16" s="26" t="str">
         <f t="shared" si="13"/>
         <v>30</v>
       </c>
-      <c r="U16" s="30" t="str">
+      <c r="U16" s="26" t="str">
         <f t="shared" ref="U16:U21" si="22">CONCATENATE($B6,D$2)</f>
         <v>31</v>
       </c>
-      <c r="V16" s="30" t="str">
+      <c r="V16" s="26" t="str">
         <f t="shared" ref="V16:V21" si="23">CONCATENATE($B6,E$2)</f>
         <v>32</v>
       </c>
-      <c r="W16" s="30" t="str">
+      <c r="W16" s="26" t="str">
         <f t="shared" ref="W16:W21" si="24">CONCATENATE($B6,F$2)</f>
         <v>33</v>
       </c>
-      <c r="X16" s="30" t="str">
+      <c r="X16" s="26" t="str">
         <f t="shared" ref="X16:X21" si="25">CONCATENATE($B6,G$2)</f>
         <v>34</v>
       </c>
-      <c r="Y16" s="30" t="str">
+      <c r="Y16" s="26" t="str">
         <f t="shared" ref="Y16:Y21" si="26">CONCATENATE($B6,H$2)</f>
         <v>35</v>
       </c>
-      <c r="Z16" s="30" t="str">
+      <c r="Z16" s="26" t="str">
         <f t="shared" ref="Z16:Z21" si="27">CONCATENATE($B6,I$2)</f>
         <v>36</v>
       </c>
-      <c r="AA16" s="30" t="str">
+      <c r="AA16" s="26" t="str">
         <f t="shared" ref="AA16:AA21" si="28">CONCATENATE($B6,J$2)</f>
         <v>37</v>
       </c>
-      <c r="AB16" s="30" t="str">
+      <c r="AB16" s="26" t="str">
         <f t="shared" ref="AB16:AB21" si="29">CONCATENATE($B6,K$2)</f>
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s">
-        <v>68</v>
-      </c>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.35">
       <c r="O17" t="s">
         <v>73</v>
       </c>
       <c r="P17" t="s">
         <v>74</v>
       </c>
-      <c r="T17" s="30" t="str">
+      <c r="T17" s="26" t="str">
         <f t="shared" si="13"/>
         <v>40</v>
       </c>
-      <c r="U17" s="30" t="str">
+      <c r="U17" s="26" t="str">
         <f t="shared" si="22"/>
         <v>41</v>
       </c>
-      <c r="V17" s="30" t="str">
+      <c r="V17" s="26" t="str">
         <f t="shared" si="23"/>
         <v>42</v>
       </c>
-      <c r="W17" s="30" t="str">
+      <c r="W17" s="26" t="str">
         <f t="shared" si="24"/>
         <v>43</v>
       </c>
-      <c r="X17" s="30" t="str">
+      <c r="X17" s="26" t="str">
         <f t="shared" si="25"/>
         <v>44</v>
       </c>
-      <c r="Y17" s="30" t="str">
+      <c r="Y17" s="26" t="str">
         <f t="shared" si="26"/>
         <v>45</v>
       </c>
-      <c r="Z17" s="30" t="str">
+      <c r="Z17" s="26" t="str">
         <f t="shared" si="27"/>
         <v>46</v>
       </c>
-      <c r="AA17" s="30" t="str">
+      <c r="AA17" s="26" t="str">
         <f t="shared" si="28"/>
         <v>47</v>
       </c>
-      <c r="AB17" s="30" t="str">
+      <c r="AB17" s="26" t="str">
         <f t="shared" si="29"/>
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.35">
       <c r="O18" t="s">
         <v>83</v>
       </c>
       <c r="P18" t="s">
         <v>105</v>
       </c>
-      <c r="T18" s="30" t="str">
+      <c r="T18" s="26" t="str">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="U18" s="30" t="str">
+      <c r="U18" s="26" t="str">
         <f t="shared" si="22"/>
         <v>51</v>
       </c>
-      <c r="V18" s="30" t="str">
+      <c r="V18" s="26" t="str">
         <f t="shared" si="23"/>
         <v>52</v>
       </c>
-      <c r="W18" s="30" t="str">
+      <c r="W18" s="26" t="str">
         <f t="shared" si="24"/>
         <v>53</v>
       </c>
-      <c r="X18" s="30" t="str">
+      <c r="X18" s="26" t="str">
         <f t="shared" si="25"/>
         <v>54</v>
       </c>
-      <c r="Y18" s="30" t="str">
+      <c r="Y18" s="26" t="str">
         <f t="shared" si="26"/>
         <v>55</v>
       </c>
-      <c r="Z18" s="30" t="str">
+      <c r="Z18" s="26" t="str">
         <f t="shared" si="27"/>
         <v>56</v>
       </c>
-      <c r="AA18" s="30" t="str">
+      <c r="AA18" s="26" t="str">
         <f t="shared" si="28"/>
         <v>57</v>
       </c>
-      <c r="AB18" s="30" t="str">
+      <c r="AB18" s="26" t="str">
         <f t="shared" si="29"/>
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.35">
       <c r="O19" t="s">
         <v>106</v>
       </c>
       <c r="P19" t="s">
         <v>82</v>
       </c>
-      <c r="T19" s="30" t="str">
+      <c r="T19" s="26" t="str">
         <f t="shared" si="13"/>
         <v>60</v>
       </c>
-      <c r="U19" s="30" t="str">
+      <c r="U19" s="26" t="str">
         <f t="shared" si="22"/>
         <v>61</v>
       </c>
-      <c r="V19" s="30" t="str">
+      <c r="V19" s="26" t="str">
         <f t="shared" si="23"/>
         <v>62</v>
       </c>
-      <c r="W19" s="30" t="str">
+      <c r="W19" s="26" t="str">
         <f t="shared" si="24"/>
         <v>63</v>
       </c>
-      <c r="X19" s="30" t="str">
+      <c r="X19" s="26" t="str">
         <f t="shared" si="25"/>
         <v>64</v>
       </c>
-      <c r="Y19" s="30" t="str">
+      <c r="Y19" s="26" t="str">
         <f t="shared" si="26"/>
         <v>65</v>
       </c>
-      <c r="Z19" s="30" t="str">
+      <c r="Z19" s="26" t="str">
         <f t="shared" si="27"/>
         <v>66</v>
       </c>
-      <c r="AA19" s="30" t="str">
+      <c r="AA19" s="26" t="str">
         <f t="shared" si="28"/>
         <v>67</v>
       </c>
-      <c r="AB19" s="30" t="str">
+      <c r="AB19" s="26" t="str">
         <f t="shared" si="29"/>
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="T20" s="30" t="str">
+    <row r="20" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="T20" s="26" t="str">
         <f t="shared" si="13"/>
         <v>70</v>
       </c>
-      <c r="U20" s="30" t="str">
+      <c r="U20" s="26" t="str">
         <f t="shared" si="22"/>
         <v>71</v>
       </c>
-      <c r="V20" s="30" t="str">
+      <c r="V20" s="26" t="str">
         <f t="shared" si="23"/>
         <v>72</v>
       </c>
-      <c r="W20" s="30" t="str">
+      <c r="W20" s="26" t="str">
         <f t="shared" si="24"/>
         <v>73</v>
       </c>
-      <c r="X20" s="30" t="str">
+      <c r="X20" s="26" t="str">
         <f t="shared" si="25"/>
         <v>74</v>
       </c>
-      <c r="Y20" s="30" t="str">
+      <c r="Y20" s="26" t="str">
         <f t="shared" si="26"/>
         <v>75</v>
       </c>
-      <c r="Z20" s="30" t="str">
+      <c r="Z20" s="26" t="str">
         <f t="shared" si="27"/>
         <v>76</v>
       </c>
-      <c r="AA20" s="30" t="str">
+      <c r="AA20" s="26" t="str">
         <f t="shared" si="28"/>
         <v>77</v>
       </c>
-      <c r="AB20" s="30" t="str">
+      <c r="AB20" s="26" t="str">
         <f t="shared" si="29"/>
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="T21" s="30" t="str">
+    <row r="21" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="T21" s="26" t="str">
         <f t="shared" si="13"/>
         <v>80</v>
       </c>
-      <c r="U21" s="30" t="str">
+      <c r="U21" s="26" t="str">
         <f t="shared" si="22"/>
         <v>81</v>
       </c>
-      <c r="V21" s="30" t="str">
+      <c r="V21" s="26" t="str">
         <f t="shared" si="23"/>
         <v>82</v>
       </c>
-      <c r="W21" s="30" t="str">
+      <c r="W21" s="26" t="str">
         <f t="shared" si="24"/>
         <v>83</v>
       </c>
-      <c r="X21" s="30" t="str">
+      <c r="X21" s="26" t="str">
         <f t="shared" si="25"/>
         <v>84</v>
       </c>
-      <c r="Y21" s="30" t="str">
+      <c r="Y21" s="26" t="str">
         <f t="shared" si="26"/>
         <v>85</v>
       </c>
-      <c r="Z21" s="30" t="str">
+      <c r="Z21" s="26" t="str">
         <f t="shared" si="27"/>
         <v>86</v>
       </c>
-      <c r="AA21" s="30" t="str">
+      <c r="AA21" s="26" t="str">
         <f t="shared" si="28"/>
         <v>87</v>
       </c>
-      <c r="AB21" s="30" t="str">
+      <c r="AB21" s="26" t="str">
         <f t="shared" si="29"/>
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="T22" s="28"/>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="T23" s="28"/>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="T24" s="28"/>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="T25" s="28"/>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.25">
-      <c r="T26" s="28"/>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
+      </c>
+      <c r="T22" s="24"/>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="T23" s="24"/>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>68</v>
+      </c>
+      <c r="T24" s="24"/>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="T25" s="24"/>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.35">
+      <c r="T26" s="24"/>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>70</v>
       </c>
-      <c r="T27" s="28"/>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.25">
+      <c r="T27" s="24"/>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.35">
       <c r="C28" t="s">
         <v>63</v>
       </c>
@@ -3066,7 +3184,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:28" x14ac:dyDescent="0.35">
       <c r="C29" t="s">
         <v>64</v>
       </c>
@@ -3090,7 +3208,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:28" x14ac:dyDescent="0.35">
       <c r="C30" t="s">
         <v>66</v>
       </c>
@@ -3114,7 +3232,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:28" x14ac:dyDescent="0.35">
       <c r="H31" t="s">
         <v>10</v>
       </c>
@@ -3132,7 +3250,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:28" x14ac:dyDescent="0.35">
       <c r="H32" t="s">
         <v>9</v>
       </c>
@@ -3150,13 +3268,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:19" x14ac:dyDescent="0.35">
       <c r="L33" t="str">
         <f t="shared" si="30"/>
         <v>game.make_move('','')</v>
       </c>
     </row>
-    <row r="34" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H34" t="s">
         <v>9</v>
       </c>
@@ -3174,7 +3292,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H35" t="s">
         <v>10</v>
       </c>
@@ -3192,7 +3310,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="36" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H36" t="s">
         <v>9</v>
       </c>
@@ -3210,7 +3328,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H37" t="s">
         <v>10</v>
       </c>
@@ -3228,7 +3346,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="38" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H38" t="s">
         <v>9</v>
       </c>
@@ -3246,7 +3364,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:19" x14ac:dyDescent="0.35">
       <c r="H39" t="s">
         <v>10</v>
       </c>
@@ -3264,7 +3382,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:19" x14ac:dyDescent="0.35">
       <c r="I41" t="s">
         <v>88</v>
       </c>
@@ -3279,7 +3397,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:19" x14ac:dyDescent="0.35">
       <c r="I42" t="s">
         <v>64</v>
       </c>
@@ -3294,7 +3412,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="43" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:19" x14ac:dyDescent="0.35">
       <c r="I43" t="s">
         <v>84</v>
       </c>
@@ -3309,7 +3427,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:19" x14ac:dyDescent="0.35">
       <c r="I44" t="s">
         <v>73</v>
       </c>
@@ -3324,7 +3442,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:19" x14ac:dyDescent="0.35">
       <c r="I45" t="s">
         <v>83</v>
       </c>
@@ -3339,7 +3457,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="46" spans="8:19" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:19" x14ac:dyDescent="0.35">
       <c r="I46" t="s">
         <v>106</v>
       </c>
